--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="359">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2072,7 +2072,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2429,12 +2429,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K157"/>
+  <dimension ref="A2:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="W61" sqref="W61"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,7 +2599,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.161000000000001</v>
+        <v>64.146000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4022,107 +4022,103 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D79" s="39"/>
+        <v>354</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39">
+        <v>1</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13">
+      <c r="G79" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H79" s="39">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20" t="s">
-        <v>76</v>
+      <c r="K79" s="48">
+        <v>44692</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39">
-        <v>3</v>
-      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K80" s="48"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>44713</v>
+      </c>
       <c r="B81" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="39">
-        <v>9.8000000000000004E-2</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="39">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="39"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D82" s="39">
-        <v>2</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>3</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="48" t="s">
-        <v>357</v>
+      <c r="K82" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>146</v>
+        <v>358</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39">
-        <v>2.9000000000000012E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
@@ -4133,17 +4129,21 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="48"/>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B84" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
@@ -4153,26 +4153,24 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="48" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C85" s="13">
-        <v>1.25</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="39">
-        <v>0.41200000000000003</v>
+        <v>2.9000000000000012E-2</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13">
+      <c r="G85" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4181,7 +4179,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4201,106 +4199,104 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>0.41200000000000003</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H87" s="39">
-        <v>2</v>
-      </c>
+      <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K87" s="48"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39">
-        <v>1</v>
-      </c>
+      <c r="A88" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
+      <c r="G88" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="48">
-        <v>45237</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>44866</v>
+      </c>
       <c r="B89" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39">
-        <v>6.0000000000000001E-3</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H89" s="39">
+        <v>2</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
-      </c>
-      <c r="H89" s="39"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="48"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D90" s="39">
-        <v>5</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20" t="s">
-        <v>353</v>
+      <c r="K90" s="48">
+        <v>45237</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -4311,40 +4307,48 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="48"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="A92" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D92" s="39">
+        <v>5</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
+      <c r="G92" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D93" s="39"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
+      <c r="G93" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -4352,38 +4356,28 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A94" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
+      <c r="G94" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="39">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>128</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -4394,20 +4388,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H95" s="39">
-        <v>2</v>
-      </c>
+      <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B96" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
@@ -4418,16 +4410,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>2</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B97" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
@@ -4438,14 +4436,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>2</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
@@ -4461,56 +4463,54 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="48"/>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="13"/>
+        <v>45047</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
+      <c r="G99" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="48">
-        <v>45118</v>
-      </c>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="13"/>
+      <c r="A100" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
+      <c r="G100" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39">
-        <v>1</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="48">
-        <v>45119</v>
-      </c>
+      <c r="K100" s="48"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45108</v>
+      </c>
       <c r="B101" s="20" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4520,20 +4520,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39">
-        <v>2</v>
-      </c>
+      <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="48" t="s">
-        <v>349</v>
+      <c r="K101" s="48">
+        <v>45118</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B102" s="20"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -4542,16 +4540,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>1</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="48">
+        <v>45119</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B103" s="20"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
@@ -4560,14 +4562,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="39"/>
+      <c r="H103" s="39">
+        <v>2</v>
+      </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="48" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4585,7 +4591,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4603,7 +4609,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4621,7 +4627,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4639,7 +4645,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4657,7 +4663,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4675,7 +4681,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4693,7 +4699,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4711,7 +4717,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4729,7 +4735,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4747,7 +4753,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4765,7 +4771,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4783,7 +4789,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4801,7 +4807,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4815,11 +4821,11 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="48"/>
+      <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4837,7 +4843,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4851,11 +4857,11 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="48"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4873,7 +4879,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4909,7 +4915,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4927,7 +4933,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4945,7 +4951,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4963,7 +4969,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4981,7 +4987,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4999,7 +5005,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5017,7 +5023,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5035,7 +5041,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5053,7 +5059,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5071,7 +5077,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5089,7 +5095,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5107,7 +5113,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5125,7 +5131,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45566</v>
+        <v>46082</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5143,7 +5149,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45597</v>
+        <v>46113</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5161,7 +5167,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5179,7 +5185,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5197,7 +5203,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5215,7 +5221,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5233,7 +5239,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5251,7 +5257,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5269,7 +5275,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5287,7 +5293,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5323,7 +5329,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5341,7 +5347,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5359,7 +5365,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5377,7 +5383,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5395,7 +5401,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5413,7 +5419,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5431,7 +5437,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5449,7 +5455,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5466,7 +5472,9 @@
       <c r="K153" s="20"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
+      <c r="A154" s="40">
+        <v>46082</v>
+      </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
       <c r="D154" s="39"/>
@@ -5482,7 +5490,9 @@
       <c r="K154" s="20"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+      <c r="A155" s="40">
+        <v>46113</v>
+      </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -5514,20 +5524,52 @@
       <c r="K156" s="20"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="43"/>
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="42" t="str">
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H157" s="43"/>
+      <c r="H157" s="39"/>
       <c r="I157" s="9"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="15"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="41"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="43"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14938,17 +14980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -15048,11 +15090,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>9.8000000000000004E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="361">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1134,6 +1134,12 @@
   </si>
   <si>
     <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>8/16,18/2023</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2078,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K160" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2429,12 +2435,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K159"/>
+  <dimension ref="A2:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="W61" sqref="W61"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,7 +2605,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>64.146000000000001</v>
+        <v>66.835999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2609,7 +2615,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>78.75</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3959,11 +3965,15 @@
       <c r="A76" s="40">
         <v>44621</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>1</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
@@ -3973,84 +3983,88 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="48">
+        <v>44628</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="39"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
+      <c r="G77" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="48"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>103</v>
+        <v>359</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>1.2E-2</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H78" s="39">
-        <v>1</v>
-      </c>
+      <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>44682</v>
+      </c>
       <c r="B79" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="39">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
+      <c r="G79" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="39"/>
+        <v>1.25</v>
+      </c>
+      <c r="H79" s="39">
+        <v>1</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="48">
-        <v>44692</v>
+      <c r="K79" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
@@ -4061,155 +4075,153 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="48"/>
+      <c r="K80" s="48">
+        <v>44692</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
+      <c r="G81" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H81" s="39">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K81" s="48"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>44713</v>
+      </c>
       <c r="B82" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
+      <c r="G82" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>358</v>
+        <v>163</v>
       </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39">
-        <v>9.8000000000000004E-2</v>
-      </c>
+      <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>3</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C84" s="13"/>
       <c r="D84" s="39">
-        <v>2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
+      <c r="G84" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="48" t="s">
-        <v>357</v>
-      </c>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>44743</v>
+      </c>
       <c r="B85" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>356</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39">
-        <v>2.9000000000000012E-2</v>
+        <v>2</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
+      <c r="G85" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="48"/>
+      <c r="K85" s="48" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D86" s="39"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
+      <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="48"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>355</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B87" s="20"/>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39">
-        <v>0.41200000000000003</v>
-      </c>
+      <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
@@ -4219,17 +4231,21 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="48"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B88" s="20"/>
+        <v>44805</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>355</v>
+      </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>0.41200000000000003</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
@@ -4239,15 +4255,13 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="48"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>128</v>
-      </c>
+        <v>44835</v>
+      </c>
+      <c r="B89" s="20"/>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
@@ -4258,45 +4272,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H89" s="39">
-        <v>2</v>
-      </c>
+      <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>44866</v>
+      </c>
       <c r="B90" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="39">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
+      <c r="G90" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="39"/>
+        <v>1.25</v>
+      </c>
+      <c r="H90" s="39">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="48">
-        <v>45237</v>
+      <c r="K90" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -4307,61 +4321,65 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="48"/>
+      <c r="K91" s="48">
+        <v>45237</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C92" s="13"/>
       <c r="D92" s="39">
-        <v>5</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
+      <c r="G92" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>353</v>
-      </c>
+      <c r="K92" s="48"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>44896</v>
+      </c>
       <c r="B93" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C93" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>5</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
+      <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="20"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="20" t="s">
+        <v>352</v>
+      </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+      <c r="D94" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -4374,19 +4392,17 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>44927</v>
+      <c r="A95" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13">
+      <c r="G95" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
@@ -4395,11 +4411,9 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>128</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B96" s="20"/>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
@@ -4410,18 +4424,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H96" s="39">
-        <v>2</v>
-      </c>
+      <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>128</v>
@@ -4442,14 +4452,16 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B98" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C98" s="13">
         <v>1.25</v>
       </c>
@@ -4460,14 +4472,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>2</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -4487,7 +4503,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -4503,56 +4519,56 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="48"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
+      <c r="G101" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="48">
-        <v>45118</v>
-      </c>
+      <c r="K101" s="48"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45108</v>
+      </c>
       <c r="B102" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
+      <c r="G102" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39">
-        <v>1</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="48">
-        <v>45119</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4563,19 +4579,19 @@
         <v/>
       </c>
       <c r="H103" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="48" t="s">
-        <v>349</v>
+      <c r="K103" s="48">
+        <v>45119</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B104" s="20"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
@@ -4584,41 +4600,53 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="39">
+        <v>2</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="48" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
+      <c r="G105" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="48">
+        <v>45163</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
+      <c r="G106" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
@@ -4627,7 +4655,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4645,7 +4673,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4663,7 +4691,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4681,7 +4709,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4699,7 +4727,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4717,7 +4745,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4735,7 +4763,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4753,7 +4781,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4771,7 +4799,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4789,7 +4817,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4807,7 +4835,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4825,7 +4853,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4843,7 +4871,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4857,11 +4885,11 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="48"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4875,11 +4903,11 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="48"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4897,7 +4925,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4915,7 +4943,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4933,7 +4961,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4951,7 +4979,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4969,7 +4997,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4987,7 +5015,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5005,7 +5033,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5023,7 +5051,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5041,7 +5069,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5059,7 +5087,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5077,7 +5105,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5095,7 +5123,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5113,7 +5141,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5131,7 +5159,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5149,7 +5177,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5167,7 +5195,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45566</v>
+        <v>46113</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5185,7 +5213,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5203,7 +5231,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5221,7 +5249,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5239,7 +5267,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5257,7 +5285,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5275,7 +5303,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5293,7 +5321,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5311,7 +5339,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5329,7 +5357,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5347,7 +5375,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5365,7 +5393,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5383,7 +5411,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5401,7 +5429,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5419,7 +5447,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5437,7 +5465,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5455,7 +5483,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5473,7 +5501,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5491,7 +5519,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5508,7 +5536,9 @@
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+      <c r="A156" s="40">
+        <v>46113</v>
+      </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
@@ -5556,20 +5586,36 @@
       <c r="K158" s="20"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="41"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="43"/>
+      <c r="A159" s="40"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="39"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="42" t="str">
+      <c r="F159" s="20"/>
+      <c r="G159" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H159" s="43"/>
+      <c r="H159" s="39"/>
       <c r="I159" s="9"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="15"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="41"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="43"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5615,10 +5661,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K441"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="88" zoomScaleNormal="120" zoomScaleSheetLayoutView="88" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="120" zoomScaleSheetLayoutView="88" workbookViewId="0">
       <pane ySplit="3210" topLeftCell="A418" activePane="bottomLeft"/>
       <selection activeCell="O11" sqref="O11"/>
-      <selection pane="bottomLeft" activeCell="K432" sqref="A432:K432"/>
+      <selection pane="bottomLeft" activeCell="K439" sqref="K439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5783,7 +5829,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>21.746000000000066</v>
+        <v>18.746000000000066</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14915,10 +14961,16 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="40"/>
-      <c r="B438" s="20"/>
+      <c r="A438" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B438" s="20" t="s">
+        <v>219</v>
+      </c>
       <c r="C438" s="13"/>
-      <c r="D438" s="39"/>
+      <c r="D438" s="39">
+        <v>2</v>
+      </c>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
       <c r="G438" s="13" t="str">
@@ -14928,13 +14980,21 @@
       <c r="H438" s="39"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="20"/>
+      <c r="K438" s="20" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="40"/>
-      <c r="B439" s="20"/>
+      <c r="A439" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B439" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C439" s="13"/>
-      <c r="D439" s="39"/>
+      <c r="D439" s="39">
+        <v>1</v>
+      </c>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
       <c r="G439" s="13" t="str">
@@ -14944,7 +15004,9 @@
       <c r="H439" s="39"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="20"/>
+      <c r="K439" s="48">
+        <v>45191</v>
+      </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
@@ -15090,11 +15152,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="366">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1140,6 +1140,21 @@
   </si>
   <si>
     <t>8/16,18/2023</t>
+  </si>
+  <si>
+    <t>11/3,6,7/2023</t>
+  </si>
+  <si>
+    <t>11/29,30/2023</t>
+  </si>
+  <si>
+    <t>12/4,5,11-15,18-20/2023</t>
+  </si>
+  <si>
+    <t>12/27,28/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1559,6 +1574,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2078,7 +2096,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K160" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K161" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2108,8 +2126,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K441"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K445" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K445"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2435,12 +2453,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K160"/>
+  <dimension ref="A2:K161"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4785" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="W61" sqref="W61"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2623,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.835999999999999</v>
+        <v>69.335999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2615,7 +2633,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4658,13 +4676,15 @@
         <v>45200</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
+      <c r="G107" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
@@ -4676,13 +4696,15 @@
         <v>45231</v>
       </c>
       <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
+      <c r="G108" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
@@ -4708,8 +4730,8 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>45292</v>
+      <c r="A110" s="50" t="s">
+        <v>365</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4727,7 +4749,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4745,7 +4767,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4763,7 +4785,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4781,7 +4803,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4799,7 +4821,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4817,7 +4839,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4835,7 +4857,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4853,7 +4875,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4871,7 +4893,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4889,7 +4911,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4903,11 +4925,11 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="48"/>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4921,11 +4943,11 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4943,7 +4965,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4961,7 +4983,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4979,7 +5001,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4997,7 +5019,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5015,7 +5037,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5033,7 +5055,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5051,7 +5073,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5069,7 +5091,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5087,7 +5109,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5105,7 +5127,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5123,7 +5145,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5141,7 +5163,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5159,7 +5181,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5177,7 +5199,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5195,7 +5217,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5213,7 +5235,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45566</v>
+        <v>46113</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5231,7 +5253,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5249,7 +5271,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5267,7 +5289,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5285,7 +5307,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5303,7 +5325,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5321,7 +5343,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5339,7 +5361,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5357,7 +5379,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5375,7 +5397,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5393,7 +5415,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5411,7 +5433,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5429,7 +5451,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5447,7 +5469,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5465,7 +5487,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5483,7 +5505,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5501,7 +5523,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5519,7 +5541,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5537,7 +5559,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5554,7 +5576,9 @@
       <c r="K156" s="20"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+      <c r="A157" s="40">
+        <v>46113</v>
+      </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
       <c r="D157" s="39"/>
@@ -5602,20 +5626,36 @@
       <c r="K159" s="20"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="41"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="43"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="42" t="str">
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H160" s="43"/>
+      <c r="H160" s="39"/>
       <c r="I160" s="9"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="15"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="43"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5659,12 +5699,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K441"/>
+  <dimension ref="A2:K445"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="120" zoomScaleSheetLayoutView="88" workbookViewId="0">
-      <pane ySplit="3210" topLeftCell="A418" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <pane ySplit="4365" topLeftCell="A430" activePane="bottomLeft"/>
       <selection activeCell="O11" sqref="O11"/>
-      <selection pane="bottomLeft" activeCell="K439" sqref="K439"/>
+      <selection pane="bottomLeft" activeCell="G453" sqref="G453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,7 +5869,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.746000000000066</v>
+        <v>1.7460000000000662</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14984,7 +15024,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>45170</v>
       </c>
@@ -15009,10 +15049,16 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="40"/>
-      <c r="B440" s="20"/>
+      <c r="A440" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B440" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="C440" s="13"/>
-      <c r="D440" s="39"/>
+      <c r="D440" s="39">
+        <v>3</v>
+      </c>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
       <c r="G440" s="13" t="str">
@@ -15022,13 +15068,19 @@
       <c r="H440" s="39"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
-      <c r="K440" s="20"/>
+      <c r="K440" s="20" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41"/>
-      <c r="B441" s="15"/>
+      <c r="B441" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="C441" s="42"/>
-      <c r="D441" s="43"/>
+      <c r="D441" s="43">
+        <v>2</v>
+      </c>
       <c r="E441" s="9"/>
       <c r="F441" s="15"/>
       <c r="G441" s="42" t="str">
@@ -15038,7 +15090,84 @@
       <c r="H441" s="43"/>
       <c r="I441" s="9"/>
       <c r="J441" s="12"/>
-      <c r="K441" s="15"/>
+      <c r="K441" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="40"/>
+      <c r="B442" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C442" s="13"/>
+      <c r="D442" s="43">
+        <v>10</v>
+      </c>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13"/>
+      <c r="H442" s="39"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B443" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C443" s="13"/>
+      <c r="D443" s="39">
+        <v>2</v>
+      </c>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="39"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" s="40"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="41"/>
+      <c r="B445" s="15"/>
+      <c r="C445" s="42"/>
+      <c r="D445" s="43"/>
+      <c r="E445" s="63"/>
+      <c r="F445" s="15"/>
+      <c r="G445" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="43"/>
+      <c r="I445" s="63"/>
+      <c r="J445" s="12"/>
+      <c r="K445" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="367">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>01/02-05,08,10,11/2024</t>
   </si>
 </sst>
 </file>
@@ -1542,6 +1545,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1574,9 +1580,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2455,10 +2458,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K161"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A97" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4785" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="W61" sqref="W61"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,66 +2483,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="60">
         <v>37257</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2565,18 +2568,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2623,7 +2626,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>69.335999999999999</v>
+        <v>63.585999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2633,7 +2636,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>85</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4716,13 +4719,15 @@
         <v>45261</v>
       </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
+      <c r="G109" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
@@ -4751,9 +4756,13 @@
       <c r="A111" s="40">
         <v>45292</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
+      <c r="D111" s="39">
+        <v>7</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
@@ -4763,7 +4772,9 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="20" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
@@ -5701,10 +5712,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K445"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <pane ySplit="4365" topLeftCell="A430" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <pane ySplit="4365" topLeftCell="A442" activePane="bottomLeft"/>
       <selection activeCell="O11" sqref="O11"/>
-      <selection pane="bottomLeft" activeCell="G453" sqref="G453"/>
+      <selection pane="bottomLeft" activeCell="A443" sqref="A443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5726,66 +5737,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="60">
         <v>37257</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5811,18 +5822,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -15158,30 +15169,30 @@
       <c r="B445" s="15"/>
       <c r="C445" s="42"/>
       <c r="D445" s="43"/>
-      <c r="E445" s="63"/>
+      <c r="E445" s="52"/>
       <c r="F445" s="15"/>
       <c r="G445" s="42" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H445" s="43"/>
-      <c r="I445" s="63"/>
+      <c r="I445" s="52"/>
       <c r="J445" s="12"/>
       <c r="K445" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -15232,17 +15243,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -15321,12 +15332,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="374">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1158,6 +1158,27 @@
   </si>
   <si>
     <t>01/02-05,08,10,11/2024</t>
+  </si>
+  <si>
+    <t>A(12-0-0)</t>
+  </si>
+  <si>
+    <t>12/4,5,11-15,18-20,27,28/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-56)</t>
+  </si>
+  <si>
+    <t>A(6-0-0)</t>
+  </si>
+  <si>
+    <t>11/3,6,7,17,29,30/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2120,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K161" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K165" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2456,12 +2477,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K161"/>
+  <dimension ref="A2:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="W61" sqref="W61"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2647,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.585999999999999</v>
+        <v>42.222000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4655,34 +4676,40 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D106" s="39"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39">
+        <v>2</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13">
+      <c r="G106" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="48" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B107" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="C107" s="13">
         <v>1.25</v>
       </c>
-      <c r="D107" s="39"/>
+      <c r="D107" s="39">
+        <v>1</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13">
@@ -4692,37 +4719,43 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="48">
+        <v>45191</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D108" s="39"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13">
+      <c r="G108" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="48"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B109" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>372</v>
+      </c>
       <c r="C109" s="13">
         <v>1.25</v>
       </c>
-      <c r="D109" s="39"/>
+      <c r="D109" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13">
@@ -4735,33 +4768,39 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
+      <c r="A110" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D110" s="39">
+        <v>6</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
+      <c r="G110" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="20" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39">
-        <v>7</v>
+        <v>6.200000000000002E-2</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
@@ -4772,35 +4811,43 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20" t="s">
-        <v>366</v>
-      </c>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D112" s="39">
+        <v>12</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
+      <c r="G112" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="20" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B113" s="20"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="20" t="s">
+        <v>369</v>
+      </c>
       <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
+      <c r="D113" s="39">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
@@ -4813,8 +4860,8 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45383</v>
+      <c r="A114" s="50" t="s">
+        <v>365</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4832,11 +4879,15 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B115" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="C115" s="13"/>
-      <c r="D115" s="39"/>
+      <c r="D115" s="39">
+        <v>7</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
@@ -4846,11 +4897,13 @@
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="20" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4868,7 +4921,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4886,7 +4939,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4904,7 +4957,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4922,7 +4975,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4940,7 +4993,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4954,11 +5007,11 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="48"/>
+      <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4976,7 +5029,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4994,7 +5047,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5012,7 +5065,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5026,11 +5079,11 @@
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5048,7 +5101,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5066,7 +5119,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5084,7 +5137,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5102,7 +5155,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5120,7 +5173,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5138,7 +5191,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5156,7 +5209,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5174,7 +5227,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5192,7 +5245,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5210,7 +5263,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5228,7 +5281,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5246,7 +5299,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5264,7 +5317,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45566</v>
+        <v>46023</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5282,7 +5335,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45597</v>
+        <v>46054</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5300,7 +5353,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45627</v>
+        <v>46082</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5318,7 +5371,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45658</v>
+        <v>46113</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5336,7 +5389,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5354,7 +5407,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5372,7 +5425,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5390,7 +5443,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5408,7 +5461,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5426,7 +5479,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5444,7 +5497,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5462,7 +5515,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5480,7 +5533,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5498,7 +5551,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5516,7 +5569,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5534,7 +5587,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5552,7 +5605,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5570,7 +5623,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5588,7 +5641,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5605,7 +5658,9 @@
       <c r="K157" s="20"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
+      <c r="A158" s="40">
+        <v>46023</v>
+      </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
       <c r="D158" s="39"/>
@@ -5621,7 +5676,9 @@
       <c r="K158" s="20"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+      <c r="A159" s="40">
+        <v>46054</v>
+      </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -5637,7 +5694,9 @@
       <c r="K159" s="20"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+      <c r="A160" s="40">
+        <v>46082</v>
+      </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
       <c r="D160" s="39"/>
@@ -5653,20 +5712,86 @@
       <c r="K160" s="20"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="41"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="43"/>
+      <c r="A161" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="42" t="str">
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H161" s="43"/>
+      <c r="H161" s="39"/>
       <c r="I161" s="9"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="15"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="40"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="40"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="39"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="41"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="43"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15182,17 +15307,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -15288,15 +15413,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.8000000000000008E-2</v>
+        <v>5.2000000000000011E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="377">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1179,6 +1179,15 @@
   </si>
   <si>
     <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/13-15/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2129,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K165" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K169" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2477,12 +2486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K165"/>
+  <dimension ref="A2:K169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A97" activePane="bottomLeft"/>
-      <selection activeCell="W61" sqref="W61"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+      <pane ySplit="4785" topLeftCell="A88" activePane="bottomLeft"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2656,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.222000000000001</v>
+        <v>37.568000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4455,11 +4464,15 @@
       <c r="A96" s="40">
         <v>44927</v>
       </c>
-      <c r="B96" s="20"/>
+      <c r="B96" s="20" t="s">
+        <v>372</v>
+      </c>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
-      <c r="D96" s="39"/>
+      <c r="D96" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13">
@@ -4498,36 +4511,32 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D98" s="39"/>
+        <v>376</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13">
+      <c r="G98" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H98" s="39">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B99" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
@@ -4538,62 +4547,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39">
+        <v>2</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D100" s="39"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39">
+        <v>3</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13">
+      <c r="G100" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D101" s="39"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13">
+      <c r="G101" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="48"/>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
       </c>
-      <c r="D102" s="39"/>
+      <c r="D102" s="39">
+        <v>1</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
@@ -4604,64 +4621,62 @@
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="48">
-        <v>45118</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
+      <c r="D103" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="39">
-        <v>1</v>
-      </c>
+      <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="48">
-        <v>45119</v>
-      </c>
+      <c r="K103" s="48"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" s="13"/>
+      <c r="A104" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
+      <c r="G104" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39">
-        <v>2</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="48" t="s">
-        <v>349</v>
-      </c>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
-      <c r="D105" s="39"/>
+      <c r="D105" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13">
@@ -4671,91 +4686,87 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="48">
-        <v>45163</v>
-      </c>
+      <c r="K105" s="48"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45108</v>
+      </c>
       <c r="B106" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39">
-        <v>2</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
+      <c r="G106" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="48" t="s">
-        <v>360</v>
+      <c r="K106" s="48">
+        <v>45118</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C107" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D107" s="39">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13">
+      <c r="G107" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H107" s="39"/>
+        <v/>
+      </c>
+      <c r="H107" s="39">
+        <v>1</v>
+      </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="48">
-        <v>45191</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
-        <v>373</v>
+        <v>128</v>
       </c>
       <c r="C108" s="13"/>
-      <c r="D108" s="39">
-        <v>5.2000000000000011E-2</v>
-      </c>
+      <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
       <c r="G108" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H108" s="39"/>
+      <c r="H108" s="39">
+        <v>2</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="48"/>
+      <c r="K108" s="48" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>372</v>
+        <v>99</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
       </c>
-      <c r="D109" s="39">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13">
@@ -4765,94 +4776,96 @@
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
+      <c r="K109" s="48">
+        <v>45163</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="C110" s="13">
-        <v>1.25</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C110" s="13"/>
       <c r="D110" s="39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13">
+      <c r="G110" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20" t="s">
-        <v>371</v>
+      <c r="K110" s="48" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45170</v>
+      </c>
       <c r="B111" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111" s="13"/>
+        <v>354</v>
+      </c>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39">
-        <v>6.200000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
+      <c r="G111" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="48">
+        <v>45191</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C112" s="13">
-        <v>1.25</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C112" s="13"/>
       <c r="D112" s="39">
-        <v>12</v>
+        <v>5.2000000000000011E-2</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13">
+      <c r="G112" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20" t="s">
-        <v>368</v>
-      </c>
+      <c r="K112" s="48"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45200</v>
+      </c>
       <c r="B113" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C113" s="13"/>
+        <v>372</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39">
-        <v>0.24199999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
+      <c r="G113" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
@@ -4860,33 +4873,39 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
+      <c r="A114" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D114" s="39">
+        <v>6</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
+      <c r="G114" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="20" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39">
-        <v>7</v>
+        <v>6.200000000000002E-2</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
@@ -4897,35 +4916,43 @@
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20" t="s">
-        <v>366</v>
-      </c>
+      <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D116" s="39">
+        <v>12</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
+      <c r="G116" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="20" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B117" s="20"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="20" t="s">
+        <v>369</v>
+      </c>
       <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
+      <c r="D117" s="39">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
@@ -4938,8 +4965,8 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45383</v>
+      <c r="A118" s="50" t="s">
+        <v>365</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4957,11 +4984,15 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B119" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
+      <c r="D119" s="39">
+        <v>7</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -4971,11 +5002,13 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="20" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4993,7 +5026,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5011,7 +5044,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5029,7 +5062,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5047,7 +5080,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5065,7 +5098,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5079,11 +5112,11 @@
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="48"/>
+      <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5101,7 +5134,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5119,7 +5152,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5137,7 +5170,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5151,11 +5184,11 @@
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="48"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5173,7 +5206,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5191,7 +5224,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5209,7 +5242,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5227,7 +5260,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5245,7 +5278,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5263,7 +5296,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5281,7 +5314,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5299,7 +5332,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5317,7 +5350,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5335,7 +5368,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5353,7 +5386,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5371,7 +5404,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5389,7 +5422,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45566</v>
+        <v>46023</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5407,7 +5440,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45597</v>
+        <v>46054</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5425,7 +5458,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45627</v>
+        <v>46082</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5443,7 +5476,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45658</v>
+        <v>46113</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5461,7 +5494,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5479,7 +5512,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5497,7 +5530,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5515,7 +5548,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5533,7 +5566,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5551,7 +5584,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5569,7 +5602,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5587,7 +5620,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5605,7 +5638,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5623,7 +5656,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5641,7 +5674,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5659,7 +5692,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5677,7 +5710,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5695,7 +5728,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5713,7 +5746,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5730,7 +5763,9 @@
       <c r="K161" s="20"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
+      <c r="A162" s="40">
+        <v>46023</v>
+      </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
@@ -5746,7 +5781,9 @@
       <c r="K162" s="20"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
+      <c r="A163" s="40">
+        <v>46054</v>
+      </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
@@ -5762,7 +5799,9 @@
       <c r="K163" s="20"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
+      <c r="A164" s="40">
+        <v>46082</v>
+      </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
@@ -5778,20 +5817,86 @@
       <c r="K164" s="20"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="41"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="43"/>
+      <c r="A165" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="39"/>
       <c r="E165" s="9"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="42" t="str">
+      <c r="F165" s="20"/>
+      <c r="G165" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H165" s="43"/>
+      <c r="H165" s="39"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="15"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="40"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H166" s="39"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="40"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="41"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="43"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15307,17 +15412,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -15415,11 +15520,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.2000000000000011E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/CTO/GUAÑEZO, MA.GINA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="377">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2489,9 +2489,9 @@
   <dimension ref="A2:K169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,7 +2656,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.568000000000005</v>
+        <v>38.818000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2666,7 +2666,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>86.25</v>
+        <v>86.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4989,15 +4989,17 @@
       <c r="B119" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39">
         <v>7</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
+      <c r="G119" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
@@ -5010,7 +5012,9 @@
       <c r="A120" s="40">
         <v>45323</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
@@ -5019,10 +5023,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H120" s="39"/>
+      <c r="H120" s="39">
+        <v>1</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="48">
+        <v>45334</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
@@ -5943,7 +5951,7 @@
   <dimension ref="A2:K445"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <pane ySplit="4365" topLeftCell="A442" activePane="bottomLeft"/>
+      <pane ySplit="4365" topLeftCell="A412" activePane="bottomLeft"/>
       <selection activeCell="O11" sqref="O11"/>
       <selection pane="bottomLeft" activeCell="A443" sqref="A443"/>
     </sheetView>
@@ -15412,17 +15420,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -15455,7 +15463,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15517,14 +15525,18 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.127</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
